--- a/Dokumentasjon/Arvid's excel ark.xlsx
+++ b/Dokumentasjon/Arvid's excel ark.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://udeoslokommuneno-my.sharepoint.com/personal/vidoa011_osloskolen_no/Documents/Arsoppgave-innlevering/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://udeoslokommuneno-my.sharepoint.com/personal/vidoa011_osloskolen_no/Documents/Arsoppgave-innlevering/Dokumentasjon/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="95" documentId="8_{A91E4169-6E77-4B24-8C82-3D94D2A50E85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{27AB337C-93D8-4F23-945A-D6FE0051F1F3}"/>
+  <xr:revisionPtr revIDLastSave="99" documentId="8_{A91E4169-6E77-4B24-8C82-3D94D2A50E85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A33BCC27-93D2-4706-93A6-1D79FCF4E6B9}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="0kDb3O2LVkaBkGwUEOt+Z0ML8qHzuRCnzuTYzg29KpWDbPIrlO11DP3XXCZs73OQFNW+mazeHxT+UpEy2CkvOQ==" workbookSaltValue="LXaFtQGSUFykn1cn3AfvQg==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{35C5BFBF-8209-43CD-BC9E-AC2D7FB80214}"/>
+    <workbookView xWindow="6615" yWindow="990" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{35C5BFBF-8209-43CD-BC9E-AC2D7FB80214}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
   <si>
     <t>Datamaskinnavn</t>
   </si>
@@ -125,6 +125,15 @@
   </si>
   <si>
     <t>databaseBruker</t>
+  </si>
+  <si>
+    <t>arsoppgavelinx</t>
+  </si>
+  <si>
+    <t>root</t>
+  </si>
+  <si>
+    <t>Kuben_12</t>
   </si>
 </sst>
 </file>
@@ -507,7 +516,7 @@
   <dimension ref="B3:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -637,10 +646,24 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C17" s="1"/>
-    </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="F17" t="s">
+        <v>30</v>
+      </c>
+      <c r="G17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C20" s="1"/>
     </row>
   </sheetData>
